--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CF/10/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CF/10/seed3/result_data_RandomForest.xlsx
@@ -604,7 +604,7 @@
         <v>9.35</v>
       </c>
       <c r="C10" t="n">
-        <v>-12.7031</v>
+        <v>-12.74230000000001</v>
       </c>
       <c r="D10" t="n">
         <v>-8.93</v>
@@ -638,7 +638,7 @@
         <v>5.38</v>
       </c>
       <c r="C12" t="n">
-        <v>-14.27200000000001</v>
+        <v>-14.38810000000001</v>
       </c>
       <c r="D12" t="n">
         <v>-10.06</v>
@@ -661,7 +661,7 @@
         <v>-8.92</v>
       </c>
       <c r="E13" t="n">
-        <v>12.1839</v>
+        <v>12.0817</v>
       </c>
     </row>
     <row r="14">
@@ -740,7 +740,7 @@
         <v>5.81</v>
       </c>
       <c r="C18" t="n">
-        <v>-14.07100000000001</v>
+        <v>-14.2532</v>
       </c>
       <c r="D18" t="n">
         <v>-8.869999999999999</v>
